--- a/transformacion/staging/fact_proyectos_poai_2025.xlsx
+++ b/transformacion/staging/fact_proyectos_poai_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>Nombre Proyecto_x</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t>Fortalecimiento de la actividad física y deportiva de docentes y estudiantes - juegos del sector educativo - en el   Valle del Cauca</t>
@@ -536,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,10 +582,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2025</v>
@@ -594,27 +606,33 @@
         <v>2142400000</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>43</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2025</v>
@@ -629,27 +647,33 @@
         <v>4899099866</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>44</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2025</v>
@@ -664,27 +688,33 @@
         <v>18487762963</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2025</v>
@@ -699,27 +729,33 @@
         <v>308000000</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2025</v>
@@ -734,27 +770,33 @@
         <v>899545245</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>47</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2025</v>
@@ -769,27 +811,33 @@
         <v>62000000</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2025</v>
@@ -804,27 +852,33 @@
         <v>406200000</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>2025</v>
@@ -839,27 +893,33 @@
         <v>46200000</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2025</v>
@@ -874,27 +934,33 @@
         <v>329999985</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>51</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2025</v>
@@ -909,27 +975,33 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>52</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>2025</v>
@@ -944,27 +1016,33 @@
         <v>60000000</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>53</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>2025</v>
@@ -979,27 +1057,33 @@
         <v>8104005542</v>
       </c>
       <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>23</v>
       </c>
       <c r="B14">
         <v>2025</v>
@@ -1014,27 +1098,33 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
       <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
       <c r="K14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2025</v>
@@ -1049,22 +1139,28 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
